--- a/Отчет Эпизотолог/2023/01.2023 - місячний/Формули та фокуси в ЕКСЕЛЬ.xlsx
+++ b/Отчет Эпизотолог/2023/01.2023 - місячний/Формули та фокуси в ЕКСЕЛЬ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Отчет Эпизотолог\2022_з жовтня\11.2022 - місячний\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lapous_boss\Отчет Эпизотолог\2023\01.2023 - місячний\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="829" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="829" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Подсчет Повторений" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="167">
   <si>
     <t>Нобивак DHPPi</t>
   </si>
@@ -728,6 +728,9 @@
   </si>
   <si>
     <t>якщо  пуста комірка поряд - ввести "пусто", інакше - попередній номер +1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - =CONCATENATE(C3;",")</t>
   </si>
 </sst>
 </file>
@@ -3031,7 +3034,7 @@
   </sheetPr>
   <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3179,10 +3182,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B3:I9"/>
+  <dimension ref="B3:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3260,6 +3263,11 @@
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
